--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\ph_integrated_tables\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF040B2A-0DE3-4A52-945A-B00B468855DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF58BB8-C44C-4ED7-90A0-F2E54D37D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Emergency Coping Strategies</t>
   </si>
   <si>
-    <t>Improved Water</t>
-  </si>
-  <si>
     <t>% of Hhwithout access to a sufficient quantity of drinking water (often and always)</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>&lt;=20%</t>
+  </si>
+  <si>
+    <t>Improved Water Source</t>
   </si>
 </sst>
 </file>
@@ -623,31 +623,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,6 +681,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,312 +1051,312 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="223.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="L3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="30" t="s">
+      <c r="N3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>23</v>
+      <c r="O3" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>28</v>
+      <c r="M4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>34</v>
+      <c r="M5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>40</v>
+      <c r="L6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="D7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="F7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="L7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>45</v>
+      <c r="M7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1373,42 +1373,42 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
       <c r="O1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1435,19 +1435,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1482,42 +1482,42 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
       <c r="O1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1544,19 +1544,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF58BB8-C44C-4ED7-90A0-F2E54D37D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDC6F41-2ABC-465D-86CF-9CFFF013FDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>Impact on Population (Health Outcomes)</t>
   </si>
@@ -47,18 +47,6 @@
     <t>relevant period AMN Phase if available</t>
   </si>
   <si>
-    <t>HH food consumption phase (P3+)</t>
-  </si>
-  <si>
-    <t>% of HHs with poor FCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of HHs with high rCSI </t>
-  </si>
-  <si>
-    <t>% of HHs with HHS score moderate and above</t>
-  </si>
-  <si>
     <t>Emergency Coping Strategies</t>
   </si>
   <si>
@@ -68,9 +56,6 @@
     <t>Improved Sanitation</t>
   </si>
   <si>
-    <t>Handwashing facilities</t>
-  </si>
-  <si>
     <t>Time to health facilities as per usual mode of transportation (more than 60 min)</t>
   </si>
   <si>
@@ -86,66 +71,36 @@
     <t>Severity level</t>
   </si>
   <si>
-    <t>Mortality</t>
-  </si>
-  <si>
     <t>Extremely high</t>
   </si>
   <si>
-    <t>&gt;1.4</t>
-  </si>
-  <si>
     <t>&gt; 40%</t>
   </si>
   <si>
     <t>&lt;20%</t>
   </si>
   <si>
-    <t>&gt;80%</t>
-  </si>
-  <si>
     <t>Very high</t>
   </si>
   <si>
-    <t>&gt;1</t>
-  </si>
-  <si>
     <t>&gt;30%</t>
   </si>
   <si>
-    <t>P4 IPC AMN</t>
-  </si>
-  <si>
     <t>&lt;40%</t>
   </si>
   <si>
-    <t>&gt;60%</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>&gt;0.75</t>
-  </si>
-  <si>
     <t>&gt;20%</t>
   </si>
   <si>
-    <t>P3 IPC AMN</t>
-  </si>
-  <si>
     <t>&lt;60%</t>
   </si>
   <si>
-    <t>&gt;40%</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
-    <t>&gt;0.5</t>
-  </si>
-  <si>
     <t>&gt;10%</t>
   </si>
   <si>
@@ -158,9 +113,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>&lt;= 0.5</t>
-  </si>
-  <si>
     <t>&lt;=10%</t>
   </si>
   <si>
@@ -170,10 +122,91 @@
     <t>&gt;=80%</t>
   </si>
   <si>
-    <t>&lt;=20%</t>
-  </si>
-  <si>
     <t>Improved Water Source</t>
+  </si>
+  <si>
+    <t>% non-trauma deaths</t>
+  </si>
+  <si>
+    <t>relevant period AFI Phase if available</t>
+  </si>
+  <si>
+    <t>HH food consumption gap (P3+)</t>
+  </si>
+  <si>
+    <t>Poor FCS</t>
+  </si>
+  <si>
+    <t>High rCSI</t>
+  </si>
+  <si>
+    <t>HHS score severe and very severe</t>
+  </si>
+  <si>
+    <t>Access to handwashing facilities</t>
+  </si>
+  <si>
+    <t>&gt; 25%</t>
+  </si>
+  <si>
+    <t>IPC AMN P5</t>
+  </si>
+  <si>
+    <t>IPC AFI 5</t>
+  </si>
+  <si>
+    <t>&gt; 20%</t>
+  </si>
+  <si>
+    <t>&lt;5%</t>
+  </si>
+  <si>
+    <t>IPC AMN P4</t>
+  </si>
+  <si>
+    <t>IPC AFI 4</t>
+  </si>
+  <si>
+    <t>&gt;15%</t>
+  </si>
+  <si>
+    <t>&gt;8%</t>
+  </si>
+  <si>
+    <t>&lt;10%</t>
+  </si>
+  <si>
+    <t>IPC AMN P3</t>
+  </si>
+  <si>
+    <t>IPC AFI 3</t>
+  </si>
+  <si>
+    <t>&gt;6%</t>
+  </si>
+  <si>
+    <t>&lt;15%</t>
+  </si>
+  <si>
+    <t>IPC AFI 2</t>
+  </si>
+  <si>
+    <t>&gt;5%</t>
+  </si>
+  <si>
+    <t>&gt;4%</t>
+  </si>
+  <si>
+    <t>IPC AFI 1</t>
+  </si>
+  <si>
+    <t>&lt;=5%</t>
+  </si>
+  <si>
+    <t>&lt;=4%</t>
+  </si>
+  <si>
+    <t>&gt;=20%</t>
   </si>
 </sst>
 </file>
@@ -262,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -371,10 +404,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -384,21 +428,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -411,9 +444,110 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -424,29 +558,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -458,7 +570,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -473,29 +613,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -504,84 +642,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -594,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -608,109 +669,256 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FF960000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FF960000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FF960000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1048,428 +1256,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0A674A-A3CE-4929-8B39-F345A5A134D4}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="11" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="223.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16" ht="223.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="M4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>14</v>
+      <c r="P4" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="O5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>22</v>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="F7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>44</v>
+      <c r="M7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:M1 B2:M2">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Moderate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Very high"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Extremely high"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C1" sqref="C1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="9" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="P2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C1 F1:O1 A2:O2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:B2">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"Very high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>"Extremely high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:N1 C2:N2">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"Moderate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Very high"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Extremely high"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1479,92 +1740,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88864FF9-E532-4B33-9CCF-3B9FDE69E91E}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="9" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="P2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:P1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E1:N1 C2:N2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Moderate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Very high"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"Extremely high"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDC6F41-2ABC-465D-86CF-9CFFF013FDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B341D-F93E-42AA-8E46-B2165206F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>relevant period AFI Phase if available</t>
   </si>
   <si>
-    <t>HH food consumption gap (P3+)</t>
-  </si>
-  <si>
     <t>Poor FCS</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>&gt;=20%</t>
+  </si>
+  <si>
+    <t>HH food consumption gap</t>
   </si>
 </sst>
 </file>
@@ -698,56 +698,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,31 +1259,31 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1301,38 +1301,38 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>9</v>
@@ -1344,18 +1344,18 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>15</v>
@@ -1380,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>15</v>
@@ -1397,13 +1397,13 @@
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1413,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>18</v>
@@ -1422,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>18</v>
@@ -1440,18 +1440,18 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -1470,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>21</v>
@@ -1493,13 +1493,13 @@
       <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>24</v>
@@ -1518,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>26</v>
@@ -1541,13 +1541,13 @@
       <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -1557,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>28</v>
@@ -1566,13 +1566,13 @@
         <v>30</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>28</v>
@@ -1584,19 +1584,19 @@
     <mergeCell ref="F1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:M1 B2:M2">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Extremely high"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1609,34 +1609,34 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Q2"/>
+      <selection activeCell="C2" sqref="C2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1657,38 +1657,38 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>9</v>
@@ -1701,19 +1701,19 @@
     <mergeCell ref="G1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B2">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Very high"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Extremely high"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1743,34 +1743,34 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1791,38 +1791,38 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>9</v>

--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B341D-F93E-42AA-8E46-B2165206F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D2D7C-3558-443F-81C4-9E8AC1A54778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>Impact on Population (Health Outcomes)</t>
   </si>
@@ -207,13 +207,28 @@
   </si>
   <si>
     <t>HH food consumption gap</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Extremely High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>NO DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +289,16 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +317,44 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF960000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -651,11 +710,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -734,6 +860,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,24 +1407,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1606,42 +1747,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1692,6 +1836,50 @@
       </c>
       <c r="Q2" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T4" s="30"/>
+      <c r="U4" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T5" s="32"/>
+      <c r="U5" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T6" s="34"/>
+      <c r="U6" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T7" s="35"/>
+      <c r="U7" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T8" s="36"/>
+      <c r="U8" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="37"/>
+      <c r="U9" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1742,35 +1930,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88864FF9-E532-4B33-9CCF-3B9FDE69E91E}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>

--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D2D7C-3558-443F-81C4-9E8AC1A54778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C377A66-11BE-410C-8153-11408157735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>Impact on Population (Health Outcomes)</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Improved Water Source</t>
-  </si>
-  <si>
-    <t>% non-trauma deaths</t>
   </si>
   <si>
     <t>relevant period AFI Phase if available</t>
@@ -228,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +262,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -354,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -603,27 +593,122 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -636,22 +721,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -664,112 +734,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -781,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -789,15 +753,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,76 +760,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,6 +826,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,334 +1373,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0A674A-A3CE-4929-8B39-F345A5A134D4}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="39" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="6" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="223.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>9</v>
+      <c r="C3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="10" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="10" t="s">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="J7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="M7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="15" t="s">
+      <c r="O7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:M1 B2:M2">
+  <conditionalFormatting sqref="C1:L1 B2:L2">
     <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -1747,148 +1714,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="6" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>9</v>
+      <c r="T3" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="29" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="17"/>
+      <c r="T4" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T4" s="30"/>
-      <c r="U4" s="31" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S5" s="19"/>
+      <c r="T5" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T5" s="32"/>
-      <c r="U5" s="33" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="21"/>
+      <c r="T6" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S7" s="22"/>
+      <c r="T7" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S8" s="23"/>
+      <c r="T8" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="24"/>
+      <c r="T9" s="25" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T6" s="34"/>
-      <c r="U6" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T7" s="35"/>
-      <c r="U7" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T8" s="36"/>
-      <c r="U8" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T9" s="37"/>
-      <c r="U9" s="38" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B2">
+  <conditionalFormatting sqref="A1:B2 C2:M2">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -1905,7 +1868,7 @@
       <formula>"Extremely high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:N1 C2:N2">
+  <conditionalFormatting sqref="D1:M1">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -1928,104 +1891,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88864FF9-E532-4B33-9CCF-3B9FDE69E91E}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="6" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="40" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:N1 C2:N2">
+  <conditionalFormatting sqref="D1:M1 C2:M2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>

--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C377A66-11BE-410C-8153-11408157735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17FA2A-8487-42DF-B4E0-1D7D726BC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="3" r:id="rId1"/>
@@ -812,6 +812,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,45 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,30 +1376,30 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1408,46 +1408,46 @@
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="42" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1455,46 +1455,46 @@
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="G3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>42</v>
@@ -1553,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>47</v>
@@ -1726,27 +1726,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1758,46 +1758,46 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1903,27 +1903,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1935,46 +1935,46 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="35" t="s">
         <v>9</v>
       </c>
     </row>

--- a/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
+++ b/inst/ph_integrated_tables/resources/ph_integrated_template_wo_mort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abraham.azar\Desktop\git\impactR4PHU\inst\ph_integrated_tables\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17FA2A-8487-42DF-B4E0-1D7D726BC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0166C44-A562-431D-A78E-F3F76212A7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>Impact on Population (Health Outcomes)</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Admin 1</t>
   </si>
   <si>
-    <t>Number of Observation</t>
-  </si>
-  <si>
     <t>Severity level</t>
   </si>
   <si>
@@ -77,27 +74,18 @@
     <t>&gt; 40%</t>
   </si>
   <si>
-    <t>&lt;20%</t>
-  </si>
-  <si>
     <t>Very high</t>
   </si>
   <si>
     <t>&gt;30%</t>
   </si>
   <si>
-    <t>&lt;40%</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>&gt;20%</t>
   </si>
   <si>
-    <t>&lt;60%</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>IPC AMN P2</t>
   </si>
   <si>
-    <t>&lt;80%</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>IPC AMN P1</t>
   </si>
   <si>
-    <t>&gt;=80%</t>
-  </si>
-  <si>
     <t>Improved Water Source</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>&gt; 20%</t>
   </si>
   <si>
-    <t>&lt;5%</t>
-  </si>
-  <si>
     <t>IPC AMN P4</t>
   </si>
   <si>
@@ -167,9 +146,6 @@
     <t>&gt;8%</t>
   </si>
   <si>
-    <t>&lt;10%</t>
-  </si>
-  <si>
     <t>IPC AMN P3</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>&gt;6%</t>
   </si>
   <si>
-    <t>&lt;15%</t>
-  </si>
-  <si>
     <t>IPC AFI 2</t>
   </si>
   <si>
@@ -200,9 +173,6 @@
     <t>&lt;=4%</t>
   </si>
   <si>
-    <t>&gt;=20%</t>
-  </si>
-  <si>
     <t>HH food consumption gap</t>
   </si>
   <si>
@@ -219,6 +189,9 @@
   </si>
   <si>
     <t>NO DATA</t>
+  </si>
+  <si>
+    <t>Number of Observations</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1349,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1379,7 @@
     </row>
     <row r="2" spans="1:15" ht="224.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>3</v>
@@ -1418,25 +1391,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L2" s="31" t="s">
         <v>7</v>
@@ -1445,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O2" s="35" t="s">
         <v>9</v>
@@ -1453,237 +1426,207 @@
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K3" s="37"/>
       <c r="L3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1660,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>3</v>
@@ -1768,25 +1711,25 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>7</v>
@@ -1795,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>9</v>
@@ -1803,46 +1746,46 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S3" s="15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" s="17"/>
       <c r="T4" s="18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S5" s="19"/>
       <c r="T5" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S6" s="21"/>
       <c r="T6" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S7" s="22"/>
       <c r="T7" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S8" s="23"/>
       <c r="T8" s="20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S9" s="24"/>
       <c r="T9" s="25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1837,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>3</v>
@@ -1945,25 +1888,25 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>7</v>
@@ -1972,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P2" s="35" t="s">
         <v>9</v>
